--- a/output_data/compiled.xlsx
+++ b/output_data/compiled.xlsx
@@ -1,48 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://morpc1-my.sharepoint.com/personal/ogwynn_morpc_org/Documents/Desktop/LocalRepo/Task1/output_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_C6EF9AC65DC6A5BBEAEB88BB4A1E10996DB16E83" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5E2E828-CF6D-43F9-A94D-96F54ACA4F6D}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="1932" windowWidth="17256" windowHeight="8868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Change by Type" sheetId="1" r:id="rId1"/>
     <sheet name="Migration Change by Type" sheetId="2" r:id="rId2"/>
+    <sheet name="Appendix" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Migration</t>
+    <t>NATURALCHG</t>
   </si>
   <si>
-    <t>Natural Change</t>
+    <t>NETMIG</t>
   </si>
   <si>
-    <t>Domestic Migration</t>
+    <t>DOMESTICMIG</t>
   </si>
   <si>
-    <t>International Migration</t>
+    <t>INTERNATIONALMIG</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>NPOPCHG</t>
+  </si>
+  <si>
+    <t>PROP_NATURALCHG</t>
+  </si>
+  <si>
+    <t>PROP_MIGRATION</t>
+  </si>
+  <si>
+    <t>PROP_DOMESTICMIG</t>
+  </si>
+  <si>
+    <t>PROP_INTERNATIONALMI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -88,9 +122,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -99,12 +134,30 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -113,22 +166,28 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1400" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
               <a:t>Population Change by Type</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -138,11 +197,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Migration</c:v>
+                  <c:v>NATURALCHG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B2BF"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'Population Change by Type'!$A$2:$A$13</c:f>
@@ -195,44 +260,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>897</c:v>
+                  <c:v>2.847</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7581</c:v>
+                  <c:v>10.448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10140</c:v>
+                  <c:v>10.768000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13178</c:v>
+                  <c:v>10.865</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12273</c:v>
+                  <c:v>11.257</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12564</c:v>
+                  <c:v>10.442</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10181</c:v>
+                  <c:v>10.667</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14592</c:v>
+                  <c:v>10.157</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6935</c:v>
+                  <c:v>9.4939999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3853</c:v>
+                  <c:v>9.3559999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-301</c:v>
+                  <c:v>1.4470000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6504</c:v>
+                  <c:v>5.819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2243-435C-BDCF-B0089EBC1BF8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -243,11 +313,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Natural Change</c:v>
+                  <c:v>NETMIG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2C6179"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'Population Change by Type'!$A$2:$A$13</c:f>
@@ -300,45 +376,59 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>2847</c:v>
+                  <c:v>0.89700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10448</c:v>
+                  <c:v>7.5810000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10768</c:v>
+                  <c:v>10.14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10865</c:v>
+                  <c:v>13.178000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11257</c:v>
+                  <c:v>12.273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10442</c:v>
+                  <c:v>12.564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10667</c:v>
+                  <c:v>10.180999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10157</c:v>
+                  <c:v>14.592000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9494</c:v>
+                  <c:v>6.9349999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9356</c:v>
+                  <c:v>3.8530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1447</c:v>
+                  <c:v>-0.30099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5819</c:v>
+                  <c:v>-6.5039999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2243-435C-BDCF-B0089EBC1BF8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="50010001"/>
         <c:axId val="50010002"/>
@@ -348,6 +438,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -356,31 +447,65 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" baseline="0">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="900" baseline="0">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
                   <a:t>Year</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50010002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50010002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -388,19 +513,42 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" baseline="0">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Population Change</a:t>
+                  <a:rPr lang="en-US" sz="900" baseline="0">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Population Change (thousands)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50010001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -408,13 +556,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr baseline="0">
+            <a:defRPr sz="1000" baseline="0">
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
@@ -423,6 +571,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -433,8 +583,18 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -443,22 +603,28 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1400" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="1400" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
               <a:t>Migration Change by Type</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -468,11 +634,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Domestic Migration</c:v>
+                  <c:v>DOMESTICMIG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="2C6179"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'Migration Change by Type'!$A$2:$A$13</c:f>
@@ -525,44 +697,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-103</c:v>
+                  <c:v>-0.10299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2939</c:v>
+                  <c:v>2.9390000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4585</c:v>
+                  <c:v>4.585</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5614</c:v>
+                  <c:v>5.6139999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5784</c:v>
+                  <c:v>5.7839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4675</c:v>
+                  <c:v>4.6749999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2232</c:v>
+                  <c:v>2.2320000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8299</c:v>
+                  <c:v>8.2989999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2810</c:v>
+                  <c:v>2.81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-498</c:v>
+                  <c:v>-0.498</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9594</c:v>
+                  <c:v>-9.5939999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5FC-4095-8E99-FF48B96A0D4C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -573,11 +750,17 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>International Migration</c:v>
+                  <c:v>INTERNATIONALMIG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="00B2BF"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
               <c:f>'Migration Change by Type'!$A$2:$A$13</c:f>
@@ -630,45 +813,59 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4642</c:v>
+                  <c:v>4.6420000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5555</c:v>
+                  <c:v>5.5549999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7564</c:v>
+                  <c:v>7.5640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6489</c:v>
+                  <c:v>6.4889999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7889</c:v>
+                  <c:v>7.8890000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7949</c:v>
+                  <c:v>7.9489999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6293</c:v>
+                  <c:v>6.2930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4125</c:v>
+                  <c:v>4.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3807</c:v>
+                  <c:v>3.8069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>197</c:v>
+                  <c:v>0.19700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3090</c:v>
+                  <c:v>3.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A5FC-4095-8E99-FF48B96A0D4C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
         <c:overlap val="100"/>
         <c:axId val="50020001"/>
         <c:axId val="50020002"/>
@@ -678,6 +875,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -686,31 +884,65 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" baseline="0">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="900" baseline="0">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
                   <a:t>Year</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50020002"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="50020002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:srgbClr val="808080"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -718,19 +950,42 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="900" baseline="0">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Population Change</a:t>
+                  <a:rPr lang="en-US" sz="900" baseline="0">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Population Change (thousands)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="50020001"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -738,13 +993,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr baseline="0">
+            <a:defRPr sz="1000" baseline="0">
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
@@ -753,6 +1008,8 @@
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -779,7 +1036,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -814,7 +1077,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -833,9 +1102,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -873,7 +1142,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -907,6 +1176,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -941,9 +1211,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1116,157 +1387,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>897</v>
+        <v>2.847</v>
       </c>
       <c r="C2">
-        <v>2847</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>7581</v>
+        <v>10.448</v>
       </c>
       <c r="C3">
-        <v>10448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+        <v>7.5810000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>10140</v>
+        <v>10.768000000000001</v>
       </c>
       <c r="C4">
-        <v>10768</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>13178</v>
+        <v>10.865</v>
       </c>
       <c r="C5">
-        <v>10865</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+        <v>13.178000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>12273</v>
+        <v>11.257</v>
       </c>
       <c r="C6">
-        <v>11257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+        <v>12.273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>12564</v>
+        <v>10.442</v>
       </c>
       <c r="C7">
-        <v>10442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+        <v>12.564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>10181</v>
+        <v>10.667</v>
       </c>
       <c r="C8">
-        <v>10667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+        <v>10.180999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>14592</v>
+        <v>10.157</v>
       </c>
       <c r="C9">
-        <v>10157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+        <v>14.592000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>6935</v>
+        <v>9.4939999999999998</v>
       </c>
       <c r="C10">
-        <v>9494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+        <v>6.9349999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>3853</v>
+        <v>9.3559999999999999</v>
       </c>
       <c r="C11">
-        <v>9356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+        <v>3.8530000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>-301</v>
+        <v>1.4470000000000001</v>
       </c>
       <c r="C12">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+        <v>-0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>-6504</v>
+        <v>5.819</v>
       </c>
       <c r="C13">
-        <v>5819</v>
+        <v>-6.5039999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -1276,161 +1547,257 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>-103</v>
+        <v>-0.10299999999999999</v>
       </c>
       <c r="C2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>2939</v>
+        <v>2.9390000000000001</v>
       </c>
       <c r="C3">
-        <v>4642</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+        <v>4.6420000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>4585</v>
+        <v>4.585</v>
       </c>
       <c r="C4">
-        <v>5555</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+        <v>5.5549999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>5614</v>
+        <v>5.6139999999999999</v>
       </c>
       <c r="C5">
-        <v>7564</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+        <v>7.5640000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>5784</v>
+        <v>5.7839999999999998</v>
       </c>
       <c r="C6">
-        <v>6489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+        <v>6.4889999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>4675</v>
+        <v>4.6749999999999998</v>
       </c>
       <c r="C7">
-        <v>7889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+        <v>7.8890000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>2232</v>
+        <v>2.2320000000000002</v>
       </c>
       <c r="C8">
-        <v>7949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+        <v>7.9489999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>8299</v>
+        <v>8.2989999999999995</v>
       </c>
       <c r="C9">
-        <v>6293</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+        <v>6.2930000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>2810</v>
+        <v>2.81</v>
       </c>
       <c r="C10">
-        <v>4125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+        <v>4.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>46</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C11">
-        <v>3807</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+        <v>3.8069999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>-498</v>
+        <v>-0.498</v>
       </c>
       <c r="C12">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>-9594</v>
+        <v>-9.5939999999999994</v>
       </c>
       <c r="C13">
-        <v>3090</v>
+        <v>3.09</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>188956</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>103567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>85389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>54.810114524016171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>45.189885475983829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>26789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>58600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>31.372893464029321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>68.627106535970668</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>